--- a/不懂清单.xlsx
+++ b/不懂清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>NO</t>
   </si>
@@ -55,6 +55,9 @@
   <si>
     <t xml:space="preserve">yes
 </t>
+  </si>
+  <si>
+    <t>？</t>
   </si>
   <si>
     <t>scroll-view2</t>
@@ -66,11 +69,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,27 +85,81 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -110,7 +167,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,11 +181,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -140,56 +197,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -200,33 +213,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -246,61 +235,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,121 +403,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,17 +429,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,9 +455,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,26 +490,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,162 +517,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1053,7 +1039,7 @@
   <dimension ref="B2:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
@@ -1078,11 +1064,11 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1091,37 +1077,40 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" ht="105" customHeight="1" spans="2:8">
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="G4" t="s">
         <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/不懂清单.xlsx
+++ b/不懂清单.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>NO</t>
   </si>
@@ -61,6 +61,42 @@
   </si>
   <si>
     <t>scroll-view2</t>
+  </si>
+  <si>
+    <t>label的实际作用是什么</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>为什么小程序打不开</t>
+  </si>
+  <si>
+    <t>navigator</t>
+  </si>
+  <si>
+    <t>插件是什么？  待了解</t>
+  </si>
+  <si>
+    <t>functional-page-navigator
+这个组件从小程序基础库版本 2.1.0 开始支持。
+仅在插件中有效，用于跳转到插件功能页。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// 对弹幕的颜色进行随机
+function getRandomColor() {
+  const rgb = []
+  for (let i = 0; i &lt; 3; ++i) {
+    let color = Math.floor(Math.random() * 256).toString(16)
+    color = color.length == 1 ? '0' + color : color
+    rgb.push(color)
+  }
+  return '#' + rgb.join('')
+}
+</t>
+  </si>
+  <si>
+    <t>video</t>
   </si>
 </sst>
 </file>
@@ -82,6 +118,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -91,13 +128,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,42 +148,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -165,9 +178,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,12 +202,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -203,24 +247,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,13 +271,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,169 +355,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,9 +467,53 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -453,13 +533,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,54 +562,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -534,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -546,137 +582,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -684,6 +720,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -691,6 +736,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1036,81 +1090,122 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B2:H5"/>
+  <dimension ref="B2:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
-    <col min="3" max="3" width="48.125" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="48.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="25.625" customWidth="1"/>
     <col min="5" max="5" width="36.375" customWidth="1"/>
     <col min="8" max="8" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" ht="105" customHeight="1" spans="2:8">
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+    <row r="5" spans="2:4">
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" ht="81" spans="2:4">
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" ht="175.5" spans="2:4">
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
